--- a/public/TemplateImport/template_import_user.xlsx
+++ b/public/TemplateImport/template_import_user.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maithy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\learning-app\public\TemplateImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3A7148-286F-4C5A-9612-18F17F9515A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>userId</t>
   </si>
@@ -50,63 +51,21 @@
     <t>class</t>
   </si>
   <si>
-    <t>stillStudy</t>
-  </si>
-  <si>
     <t>nien_khoa</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
-    <t>dan_toc</t>
-  </si>
-  <si>
-    <t>ton_giao</t>
-  </si>
-  <si>
-    <t>quoc_tich</t>
-  </si>
-  <si>
     <t>cccd</t>
   </si>
   <si>
-    <t>ho_khau_thuong_tru</t>
-  </si>
-  <si>
-    <t>khu_vuc</t>
-  </si>
-  <si>
     <t>khoi</t>
   </si>
   <si>
     <t>bac_he_dao_tao</t>
   </si>
   <si>
-    <t>ma_cvht</t>
-  </si>
-  <si>
-    <t>ho_ten_cvht</t>
-  </si>
-  <si>
-    <t>email_cvht</t>
-  </si>
-  <si>
-    <t>dien_thoai_cvht</t>
-  </si>
-  <si>
-    <t>ma_cvht_ng2</t>
-  </si>
-  <si>
-    <t>ho_ten_cvht_ng2</t>
-  </si>
-  <si>
-    <t>email_cvht_ng2</t>
-  </si>
-  <si>
-    <t>dien_thoai_cvht_ng2</t>
-  </si>
-  <si>
     <t>ma_truong</t>
   </si>
   <si>
@@ -152,42 +111,12 @@
     <t>Nam</t>
   </si>
   <si>
-    <t>Kinh</t>
-  </si>
-  <si>
-    <t>Không</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
-    <t>KV1</t>
-  </si>
-  <si>
     <t>Khoi1</t>
   </si>
   <si>
     <t>Bachelor</t>
   </si>
   <si>
-    <t>CV001</t>
-  </si>
-  <si>
-    <t>Nguyen CVHT</t>
-  </si>
-  <si>
-    <t>cvht@example.com</t>
-  </si>
-  <si>
-    <t>CV002</t>
-  </si>
-  <si>
-    <t>Nguyen CVHT2</t>
-  </si>
-  <si>
-    <t>cvht2@example.com</t>
-  </si>
-  <si>
     <t>MTruong1</t>
   </si>
   <si>
@@ -230,63 +159,21 @@
     <t>Lớp</t>
   </si>
   <si>
-    <t>Vẫn còn học</t>
-  </si>
-  <si>
     <t>Niên khóa</t>
   </si>
   <si>
     <t>Giới tính</t>
   </si>
   <si>
-    <t>Dân tộc</t>
-  </si>
-  <si>
-    <t>Tôn giáo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quốc tịch </t>
-  </si>
-  <si>
     <t>CCCD</t>
   </si>
   <si>
-    <t>Hộ khẩu thường trú</t>
-  </si>
-  <si>
-    <t>Khu vực</t>
-  </si>
-  <si>
     <t>Khối</t>
   </si>
   <si>
     <t>Bậc hệ đào tạo</t>
   </si>
   <si>
-    <t>Mã cố vấn học tập</t>
-  </si>
-  <si>
-    <t>Họ tên cố vấn học tập</t>
-  </si>
-  <si>
-    <t>Email Cố vấn học tập</t>
-  </si>
-  <si>
-    <t>Điện thoại Cố vấn học tập</t>
-  </si>
-  <si>
-    <t>Mã cố vấn học tập 2</t>
-  </si>
-  <si>
-    <t>Họ tên cố vấn học tập 2</t>
-  </si>
-  <si>
-    <t>Email Cố vấn học tập 2</t>
-  </si>
-  <si>
-    <t>Điện thoại Cố vấn học tập 2</t>
-  </si>
-  <si>
     <t>Mã trường</t>
   </si>
   <si>
@@ -312,17 +199,23 @@
   </si>
   <si>
     <t>IMPORT NGƯỜI DÙNG</t>
+  </si>
+  <si>
+    <t>currentCreditHour</t>
+  </si>
+  <si>
+    <t>Số tín chỉ tích lũy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +223,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +251,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -413,7 +306,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,57 +589,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17.3" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="16" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="1"/>
-    <col min="31" max="32" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" style="1"/>
+    <col min="17" max="18" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -769,128 +647,76 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
     </row>
-    <row r="2" spans="1:35" s="6" customFormat="1" ht="50.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="50.15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="50.15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,265 +781,148 @@
         <v>20</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="34.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C4" s="5">
         <v>32874</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4">
         <v>123456789</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="4" t="b">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2018</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="4">
-        <v>123456789</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="T4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W4" s="4">
-        <v>987654321</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>987654322</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>2018</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>2022</v>
-      </c>
-      <c r="AG4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI4" s="4">
+        <v>33</v>
+      </c>
+      <c r="U4" s="4">
         <v>3.5</v>
       </c>
+      <c r="V4" s="4">
+        <v>140</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="34.6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <v>32874</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4">
         <v>123456789</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="4" t="b">
+        <v>25</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="4">
+        <v>123456789</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2018</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2022</v>
+      </c>
+      <c r="S5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="4">
-        <v>123456789</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="T5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="W5" s="4">
-        <v>987654321</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>987654322</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>2018</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>2022</v>
-      </c>
-      <c r="AG5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI5" s="4">
+        <v>33</v>
+      </c>
+      <c r="U5" s="4">
         <v>3.5</v>
+      </c>
+      <c r="V5" s="4">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
